--- a/TechParvaLEAO/Uploads/LEAO-Bulk Upload and Update.xlsx
+++ b/TechParvaLEAO/Uploads/LEAO-Bulk Upload and Update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya.mishra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B635C083-998F-40BD-AE58-CBE78ECB8C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F68C5F-5DD0-4FD4-9AB5-F735C9992BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,25 @@
     <sheet name="Update" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Employee Code</t>
   </si>
@@ -146,21 +159,6 @@
     <t>Date of Joining</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>PRASHATH SEKAR</t>
-  </si>
-  <si>
-    <t>C5315</t>
-  </si>
-  <si>
-    <t>fayekkamlei2c@gmail.com</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>paramountplusvideos</t>
   </si>
   <si>
@@ -204,18 +202,64 @@
   </si>
   <si>
     <t>Bucket Names</t>
+  </si>
+  <si>
+    <t>INSPECTOR</t>
+  </si>
+  <si>
+    <t>priyatiwarijune2023@gmail.com</t>
+  </si>
+  <si>
+    <t>BARBIL</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>RM - BARBIL</t>
+  </si>
+  <si>
+    <t>ATAL NAYAK</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>RULE 1</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>C5338</t>
+  </si>
+  <si>
+    <t>SOURAV KUMAR DAS</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>16.03.2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +288,60 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,36 +379,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="20">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{821213D0-3621-4EB8-9650-8B87D1D06E4C}"/>
+    <cellStyle name="Hyperlink 3" xfId="6" xr:uid="{92761062-A636-4747-A1D8-452A9200C8C5}"/>
+    <cellStyle name="Hyperlink 4" xfId="7" xr:uid="{4C097D4F-ABDC-487A-BAA6-04A5DC50C499}"/>
+    <cellStyle name="Hyperlink 5" xfId="9" xr:uid="{81ACB233-605B-484C-B0B1-601755D610A4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="16" xr:uid="{A64C7B45-5209-43A3-B4BC-427C36BC8DB8}"/>
+    <cellStyle name="Normal 12" xfId="17" xr:uid="{0968337A-DE8F-4954-AAA9-B24608F44D7B}"/>
+    <cellStyle name="Normal 14" xfId="19" xr:uid="{870CD885-FE67-4DBD-965E-E3D6F9483E70}"/>
+    <cellStyle name="Normal 15" xfId="18" xr:uid="{A8987AA3-70AA-489A-9774-AA12ABF8A4C0}"/>
+    <cellStyle name="Normal 18" xfId="10" xr:uid="{FBA38E12-759F-444D-B02A-E44D7120D331}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{CB16B9FE-E48C-4D6E-B6F9-DAB91A4FDB66}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{BDC6C698-7770-4BC7-8ADE-4D2AA9E3842F}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{114F8AB8-62D8-493E-90C2-7A7714DE1223}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{78591232-32BC-439C-8F33-0FB4329F2BF9}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{651CBC7A-E4AF-48E5-B42D-59D2D5830D46}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{7FC47888-BEB5-4F1C-918C-75AF55F20007}"/>
+    <cellStyle name="Normal 7" xfId="13" xr:uid="{774E9A8E-3E53-4DFA-9AB9-E38B7EB44202}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{9964346C-9ACB-4D43-AC8B-72C3F2EBAC09}"/>
+    <cellStyle name="Normal 9" xfId="15" xr:uid="{0A32F145-2A0E-4D73-8DEB-20843E679CA5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1130,66 +1297,66 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1221,215 +1388,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60">
+    <row r="1" spans="1:20" ht="60">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1234</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="6">
-        <v>44146</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>286</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1234567</v>
-      </c>
-      <c r="J3">
-        <v>563</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="10">
-        <v>45180</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="14">
+        <v>45139</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$1:$B$2153, A2)+COUNTIF($B$2172:$B$65526, A2)+COUNTIF($B$2158:$B$2164, A2)&gt;1,NOT(ISBLANK(A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{3CF28B3A-3B8E-4346-88BE-7A40D69318EC}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{DC266078-3D09-4C9D-9D7A-AF95633C1A43}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
